--- a/Code/Results/Cases/Case_3_171/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_171/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.022366892933934</v>
+        <v>1.049461418104183</v>
       </c>
       <c r="D2">
-        <v>1.038167487272831</v>
+        <v>1.054268500874967</v>
       </c>
       <c r="E2">
-        <v>1.034891445419186</v>
+        <v>1.056423404658036</v>
       </c>
       <c r="F2">
-        <v>1.043858246100515</v>
+        <v>1.066577067320107</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.051955249771292</v>
+        <v>1.044679309074269</v>
       </c>
       <c r="J2">
-        <v>1.043898591930571</v>
+        <v>1.054499741971103</v>
       </c>
       <c r="K2">
-        <v>1.049119514206437</v>
+        <v>1.057012178741535</v>
       </c>
       <c r="L2">
-        <v>1.045885181114736</v>
+        <v>1.059161156060306</v>
       </c>
       <c r="M2">
-        <v>1.054738597363176</v>
+        <v>1.069287242618522</v>
       </c>
       <c r="N2">
-        <v>1.018154013758724</v>
+        <v>1.021966965282052</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.026855901334788</v>
+        <v>1.050416860626251</v>
       </c>
       <c r="D3">
-        <v>1.041537332733651</v>
+        <v>1.055010325809476</v>
       </c>
       <c r="E3">
-        <v>1.038624687051077</v>
+        <v>1.05726754969049</v>
       </c>
       <c r="F3">
-        <v>1.047865666289045</v>
+        <v>1.067488695386129</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.053303466027597</v>
+        <v>1.044916980563474</v>
       </c>
       <c r="J3">
-        <v>1.046640290321643</v>
+        <v>1.055104444839172</v>
       </c>
       <c r="K3">
-        <v>1.051664951540544</v>
+        <v>1.057567395799492</v>
       </c>
       <c r="L3">
-        <v>1.048786105479337</v>
+        <v>1.059818859499298</v>
       </c>
       <c r="M3">
-        <v>1.057920647324594</v>
+        <v>1.07001425038649</v>
       </c>
       <c r="N3">
-        <v>1.019091331098159</v>
+        <v>1.02217139681673</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.029703826325353</v>
+        <v>1.051035639155037</v>
       </c>
       <c r="D4">
-        <v>1.043678542667065</v>
+        <v>1.05549081568895</v>
       </c>
       <c r="E4">
-        <v>1.040998872734437</v>
+        <v>1.057814618097268</v>
       </c>
       <c r="F4">
-        <v>1.050414479455443</v>
+        <v>1.068079551094568</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.054150556571438</v>
+        <v>1.045069853785605</v>
       </c>
       <c r="J4">
-        <v>1.048377060592301</v>
+        <v>1.055495632441421</v>
       </c>
       <c r="K4">
-        <v>1.053276907085543</v>
+        <v>1.057926469216746</v>
       </c>
       <c r="L4">
-        <v>1.050626431520278</v>
+        <v>1.060244639408543</v>
       </c>
       <c r="M4">
-        <v>1.059940263278368</v>
+        <v>1.070485008083912</v>
       </c>
       <c r="N4">
-        <v>1.019684770125427</v>
+        <v>1.022303563609145</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.030887971793037</v>
+        <v>1.051295902651391</v>
       </c>
       <c r="D5">
-        <v>1.044569587244279</v>
+        <v>1.05569292702714</v>
       </c>
       <c r="E5">
-        <v>1.041987376947079</v>
+        <v>1.058044807743626</v>
       </c>
       <c r="F5">
-        <v>1.05147575596587</v>
+        <v>1.068328177888631</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.054500757861577</v>
+        <v>1.045133901802177</v>
       </c>
       <c r="J5">
-        <v>1.049098534198405</v>
+        <v>1.055660063799455</v>
       </c>
       <c r="K5">
-        <v>1.053946405791166</v>
+        <v>1.058077377358864</v>
       </c>
       <c r="L5">
-        <v>1.051391569296294</v>
+        <v>1.060423684454691</v>
       </c>
       <c r="M5">
-        <v>1.060780169629816</v>
+        <v>1.070682993573444</v>
       </c>
       <c r="N5">
-        <v>1.019931210145356</v>
+        <v>1.022359098794294</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.031086038705026</v>
+        <v>1.05133960957142</v>
       </c>
       <c r="D6">
-        <v>1.044718670923646</v>
+        <v>1.055726869018573</v>
       </c>
       <c r="E6">
-        <v>1.042152797175929</v>
+        <v>1.058083469407039</v>
       </c>
       <c r="F6">
-        <v>1.051653358110053</v>
+        <v>1.068369936926969</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.054559215259791</v>
+        <v>1.045144642835417</v>
       </c>
       <c r="J6">
-        <v>1.049219172116728</v>
+        <v>1.055687671116139</v>
       </c>
       <c r="K6">
-        <v>1.054058345361208</v>
+        <v>1.058102712753365</v>
       </c>
       <c r="L6">
-        <v>1.051519546304042</v>
+        <v>1.060453749638874</v>
       </c>
       <c r="M6">
-        <v>1.060920665751086</v>
+        <v>1.070716240801598</v>
       </c>
       <c r="N6">
-        <v>1.019972412585709</v>
+        <v>1.02236842175759</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.029719699893451</v>
+        <v>1.051039116303048</v>
       </c>
       <c r="D7">
-        <v>1.04369048430919</v>
+        <v>1.055493515866755</v>
       </c>
       <c r="E7">
-        <v>1.041012118490946</v>
+        <v>1.057817693110315</v>
       </c>
       <c r="F7">
-        <v>1.050428700085061</v>
+        <v>1.068082872351948</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.054155259041034</v>
+        <v>1.045070710463038</v>
       </c>
       <c r="J7">
-        <v>1.048386734663858</v>
+        <v>1.055497829676504</v>
       </c>
       <c r="K7">
-        <v>1.053285884743797</v>
+        <v>1.057928485842043</v>
       </c>
       <c r="L7">
-        <v>1.050636688521914</v>
+        <v>1.060247031633283</v>
       </c>
       <c r="M7">
-        <v>1.059951521690174</v>
+        <v>1.070487653267055</v>
       </c>
       <c r="N7">
-        <v>1.019688074908884</v>
+        <v>1.022304305782513</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.023896016070149</v>
+        <v>1.049784201232633</v>
       </c>
       <c r="D8">
-        <v>1.039314659462018</v>
+        <v>1.054519103944159</v>
       </c>
       <c r="E8">
-        <v>1.036161899169857</v>
+        <v>1.056708510538015</v>
       </c>
       <c r="F8">
-        <v>1.045221952008679</v>
+        <v>1.066884954258747</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.052416209970751</v>
+        <v>1.044759820616519</v>
       </c>
       <c r="J8">
-        <v>1.044833045703399</v>
+        <v>1.054704123311478</v>
       </c>
       <c r="K8">
-        <v>1.049987174242893</v>
+        <v>1.057199855483457</v>
       </c>
       <c r="L8">
-        <v>1.046873339212423</v>
+        <v>1.059383387545857</v>
       </c>
       <c r="M8">
-        <v>1.05582231839696</v>
+        <v>1.069532868163518</v>
       </c>
       <c r="N8">
-        <v>1.018473543912201</v>
+        <v>1.022036077242918</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.013177033950471</v>
+        <v>1.047577089175586</v>
       </c>
       <c r="D9">
-        <v>1.031289156997718</v>
+        <v>1.052805800683007</v>
       </c>
       <c r="E9">
-        <v>1.02728220384127</v>
+        <v>1.05476056341454</v>
       </c>
       <c r="F9">
-        <v>1.035691479111761</v>
+        <v>1.06478157547254</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.049151395400074</v>
+        <v>1.044205001552015</v>
       </c>
       <c r="J9">
-        <v>1.038272906780805</v>
+        <v>1.053304824539093</v>
       </c>
       <c r="K9">
-        <v>1.043894196999513</v>
+        <v>1.05591451306999</v>
       </c>
       <c r="L9">
-        <v>1.039947627845363</v>
+        <v>1.057863132298486</v>
       </c>
       <c r="M9">
-        <v>1.048230861705916</v>
+        <v>1.067853036663542</v>
       </c>
       <c r="N9">
-        <v>1.016229185477898</v>
+        <v>1.021562569258168</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.005690941532203</v>
+        <v>1.046108573588409</v>
       </c>
       <c r="D10">
-        <v>1.02570692877622</v>
+        <v>1.051666193334444</v>
       </c>
       <c r="E10">
-        <v>1.021115787562356</v>
+        <v>1.053466437071522</v>
       </c>
       <c r="F10">
-        <v>1.029074288092165</v>
+        <v>1.063384458296338</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.046830247373514</v>
+        <v>1.043830454947992</v>
       </c>
       <c r="J10">
-        <v>1.033680573619772</v>
+        <v>1.052371557544721</v>
       </c>
       <c r="K10">
-        <v>1.0396270472139</v>
+        <v>1.055056736644592</v>
       </c>
       <c r="L10">
-        <v>1.035113976491012</v>
+        <v>1.056850769285814</v>
       </c>
       <c r="M10">
-        <v>1.042937716799206</v>
+        <v>1.066734986353366</v>
       </c>
       <c r="N10">
-        <v>1.014656784891667</v>
+        <v>1.021246347423532</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.002360769833623</v>
+        <v>1.045473389060422</v>
       </c>
       <c r="D11">
-        <v>1.023229888632131</v>
+        <v>1.05117336372091</v>
       </c>
       <c r="E11">
-        <v>1.018381704440897</v>
+        <v>1.052907152362461</v>
       </c>
       <c r="F11">
-        <v>1.026140575083711</v>
+        <v>1.06278072771697</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.045788485219175</v>
+        <v>1.043667172073276</v>
       </c>
       <c r="J11">
-        <v>1.031635666741114</v>
+        <v>1.051967360075136</v>
       </c>
       <c r="K11">
-        <v>1.037726628604742</v>
+        <v>1.054685113733517</v>
       </c>
       <c r="L11">
-        <v>1.032965099328389</v>
+        <v>1.056412689487506</v>
       </c>
       <c r="M11">
-        <v>1.040585800390571</v>
+        <v>1.066251309579878</v>
       </c>
       <c r="N11">
-        <v>1.013956382386097</v>
+        <v>1.021109294681079</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.001109748742189</v>
+        <v>1.045237558263516</v>
       </c>
       <c r="D12">
-        <v>1.022300361030384</v>
+        <v>1.050990400586583</v>
       </c>
       <c r="E12">
-        <v>1.017356031809203</v>
+        <v>1.052699572872225</v>
       </c>
       <c r="F12">
-        <v>1.025040044917303</v>
+        <v>1.062556661627029</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.045395797743606</v>
+        <v>1.043606356555163</v>
       </c>
       <c r="J12">
-        <v>1.03086721615445</v>
+        <v>1.051817211097766</v>
       </c>
       <c r="K12">
-        <v>1.037012439291202</v>
+        <v>1.054547047389661</v>
       </c>
       <c r="L12">
-        <v>1.032158104207281</v>
+        <v>1.056250010331657</v>
       </c>
       <c r="M12">
-        <v>1.039702742553397</v>
+        <v>1.06607171878703</v>
       </c>
       <c r="N12">
-        <v>1.013693150740884</v>
+        <v>1.021058368580856</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.001378744929463</v>
+        <v>1.045288140001717</v>
       </c>
       <c r="D13">
-        <v>1.022500182716035</v>
+        <v>1.051029642445725</v>
       </c>
       <c r="E13">
-        <v>1.017576508057101</v>
+        <v>1.052744091944643</v>
       </c>
       <c r="F13">
-        <v>1.025276610963931</v>
+        <v>1.062604716108433</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.045480293529767</v>
+        <v>1.043619409147719</v>
       </c>
       <c r="J13">
-        <v>1.031032460156647</v>
+        <v>1.051849419092099</v>
       </c>
       <c r="K13">
-        <v>1.037166016628647</v>
+        <v>1.054576664387376</v>
       </c>
       <c r="L13">
-        <v>1.03233161282487</v>
+        <v>1.056284903590684</v>
       </c>
       <c r="M13">
-        <v>1.03989259661017</v>
+        <v>1.066110238511375</v>
       </c>
       <c r="N13">
-        <v>1.013749756055284</v>
+        <v>1.02106929323774</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.002257650988044</v>
+        <v>1.045453893065082</v>
       </c>
       <c r="D14">
-        <v>1.023153248935431</v>
+        <v>1.051158237970276</v>
       </c>
       <c r="E14">
-        <v>1.018297131314316</v>
+        <v>1.05288999042835</v>
       </c>
       <c r="F14">
-        <v>1.026049828847516</v>
+        <v>1.062762202534481</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.045756143767016</v>
+        <v>1.043662148406193</v>
       </c>
       <c r="J14">
-        <v>1.031572330004133</v>
+        <v>1.051954948953734</v>
       </c>
       <c r="K14">
-        <v>1.037667764813078</v>
+        <v>1.054673701713198</v>
       </c>
       <c r="L14">
-        <v>1.03289857498687</v>
+        <v>1.056399241490313</v>
       </c>
       <c r="M14">
-        <v>1.040513002032452</v>
+        <v>1.066236463148558</v>
       </c>
       <c r="N14">
-        <v>1.013934687034768</v>
+        <v>1.021105085490997</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.002797289996154</v>
+        <v>1.04555603294368</v>
       </c>
       <c r="D15">
-        <v>1.023554359274047</v>
+        <v>1.051237482643659</v>
       </c>
       <c r="E15">
-        <v>1.018739775604973</v>
+        <v>1.05297990504059</v>
       </c>
       <c r="F15">
-        <v>1.026524783654513</v>
+        <v>1.062859259853834</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.04592533806175</v>
+        <v>1.043688459627366</v>
       </c>
       <c r="J15">
-        <v>1.03190377213354</v>
+        <v>1.052019967818492</v>
       </c>
       <c r="K15">
-        <v>1.037975798565915</v>
+        <v>1.054733485793305</v>
       </c>
       <c r="L15">
-        <v>1.033246719365969</v>
+        <v>1.056469694599796</v>
       </c>
       <c r="M15">
-        <v>1.040893988104156</v>
+        <v>1.066314243400296</v>
       </c>
       <c r="N15">
-        <v>1.01404821799507</v>
+        <v>1.021127135825894</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.005910025300399</v>
+        <v>1.046150743366402</v>
       </c>
       <c r="D16">
-        <v>1.025870022399167</v>
+        <v>1.05169891416069</v>
       </c>
       <c r="E16">
-        <v>1.021295849672213</v>
+        <v>1.053503577842082</v>
       </c>
       <c r="F16">
-        <v>1.029267502145024</v>
+        <v>1.063424551955312</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.046898594369384</v>
+        <v>1.04384126832803</v>
       </c>
       <c r="J16">
-        <v>1.033815064914486</v>
+        <v>1.052398381056952</v>
       </c>
       <c r="K16">
-        <v>1.039752030113677</v>
+        <v>1.055081395904314</v>
       </c>
       <c r="L16">
-        <v>1.035255378627462</v>
+        <v>1.056879849194626</v>
       </c>
       <c r="M16">
-        <v>1.043092505377271</v>
+        <v>1.066767095897858</v>
       </c>
       <c r="N16">
-        <v>1.014702845244596</v>
+        <v>1.021255440530411</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.00783832981778</v>
+        <v>1.04652397557882</v>
       </c>
       <c r="D17">
-        <v>1.027306234509495</v>
+        <v>1.051988527048198</v>
       </c>
       <c r="E17">
-        <v>1.022881734344269</v>
+        <v>1.053832354243824</v>
       </c>
       <c r="F17">
-        <v>1.03096924817689</v>
+        <v>1.063779475205599</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.047499119724637</v>
+        <v>1.043936826601684</v>
       </c>
       <c r="J17">
-        <v>1.034998589637079</v>
+        <v>1.052635727166339</v>
       </c>
       <c r="K17">
-        <v>1.04085184670438</v>
+        <v>1.055299577875203</v>
       </c>
       <c r="L17">
-        <v>1.036500115870113</v>
+        <v>1.0571372041006</v>
       </c>
       <c r="M17">
-        <v>1.0444552219999</v>
+        <v>1.067051278685228</v>
       </c>
       <c r="N17">
-        <v>1.01510815102069</v>
+        <v>1.02133588907711</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.008954576128252</v>
+        <v>1.046741742354647</v>
       </c>
       <c r="D18">
-        <v>1.028138204963028</v>
+        <v>1.05215751383425</v>
       </c>
       <c r="E18">
-        <v>1.023800615889821</v>
+        <v>1.054024228117785</v>
       </c>
       <c r="F18">
-        <v>1.031955283905928</v>
+        <v>1.063986614547038</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.047845871470881</v>
+        <v>1.043992457789727</v>
       </c>
       <c r="J18">
-        <v>1.035683507114368</v>
+        <v>1.052774158704597</v>
       </c>
       <c r="K18">
-        <v>1.041488291117883</v>
+        <v>1.05542682035701</v>
       </c>
       <c r="L18">
-        <v>1.037220788201304</v>
+        <v>1.057287341811005</v>
       </c>
       <c r="M18">
-        <v>1.045244318782874</v>
+        <v>1.067217080684454</v>
       </c>
       <c r="N18">
-        <v>1.015342683009182</v>
+        <v>1.021382801110553</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.009333766683963</v>
+        <v>1.046816006487952</v>
       </c>
       <c r="D19">
-        <v>1.028420923530054</v>
+        <v>1.052215144178795</v>
       </c>
       <c r="E19">
-        <v>1.024112904259731</v>
+        <v>1.054089669774888</v>
       </c>
       <c r="F19">
-        <v>1.032290399035408</v>
+        <v>1.064057263783622</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.047963513431728</v>
+        <v>1.044011408534556</v>
       </c>
       <c r="J19">
-        <v>1.035916140184469</v>
+        <v>1.052821358821623</v>
       </c>
       <c r="K19">
-        <v>1.041704454779102</v>
+        <v>1.05547020343885</v>
       </c>
       <c r="L19">
-        <v>1.037465621454984</v>
+        <v>1.05733853942743</v>
       </c>
       <c r="M19">
-        <v>1.045512417656805</v>
+        <v>1.06727362213544</v>
       </c>
       <c r="N19">
-        <v>1.015422338103587</v>
+        <v>1.021398794812555</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.00763232541308</v>
+        <v>1.046483924384149</v>
       </c>
       <c r="D20">
-        <v>1.027152740190358</v>
+        <v>1.051957448059536</v>
       </c>
       <c r="E20">
-        <v>1.022712222333527</v>
+        <v>1.053797068863312</v>
       </c>
       <c r="F20">
-        <v>1.030787349652776</v>
+        <v>1.063741383020277</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.047435055129228</v>
+        <v>1.043926585098279</v>
       </c>
       <c r="J20">
-        <v>1.03487217133705</v>
+        <v>1.052610263040028</v>
       </c>
       <c r="K20">
-        <v>1.040734372765403</v>
+        <v>1.055276171010866</v>
       </c>
       <c r="L20">
-        <v>1.036367124836878</v>
+        <v>1.057109589559402</v>
       </c>
       <c r="M20">
-        <v>1.044309613560277</v>
+        <v>1.067020784106333</v>
       </c>
       <c r="N20">
-        <v>1.015064860538241</v>
+        <v>1.021327258972761</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.001999228934322</v>
+        <v>1.045405080012193</v>
       </c>
       <c r="D21">
-        <v>1.022961201651377</v>
+        <v>1.051120367139711</v>
       </c>
       <c r="E21">
-        <v>1.018085209053324</v>
+        <v>1.052847022429576</v>
       </c>
       <c r="F21">
-        <v>1.02582243859616</v>
+        <v>1.062715821551801</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.045675072767843</v>
+        <v>1.043649567310008</v>
       </c>
       <c r="J21">
-        <v>1.031413600367106</v>
+        <v>1.051923873364186</v>
       </c>
       <c r="K21">
-        <v>1.037520244391182</v>
+        <v>1.054645127433098</v>
       </c>
       <c r="L21">
-        <v>1.032731865307726</v>
+        <v>1.05636557062758</v>
       </c>
       <c r="M21">
-        <v>1.040330572719363</v>
+        <v>1.066199291243753</v>
       </c>
       <c r="N21">
-        <v>1.013880315372974</v>
+        <v>1.021094546074919</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9983758075098419</v>
+        <v>1.044727375835591</v>
       </c>
       <c r="D22">
-        <v>1.02027092941265</v>
+        <v>1.050594615681381</v>
       </c>
       <c r="E22">
-        <v>1.015117243327529</v>
+        <v>1.05225063865407</v>
       </c>
       <c r="F22">
-        <v>1.022637916755879</v>
+        <v>1.062072089123504</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.044535227438656</v>
+        <v>1.043474440926496</v>
       </c>
       <c r="J22">
-        <v>1.029187453793318</v>
+        <v>1.051492243760829</v>
       </c>
       <c r="K22">
-        <v>1.035451234374989</v>
+        <v>1.054248197726587</v>
       </c>
       <c r="L22">
-        <v>1.030395057732786</v>
+        <v>1.055898026811126</v>
       </c>
       <c r="M22">
-        <v>1.037773867385472</v>
+        <v>1.065683181829957</v>
       </c>
       <c r="N22">
-        <v>1.013117703650249</v>
+        <v>1.020948122775075</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>1.000304649895342</v>
+        <v>1.045086581668773</v>
       </c>
       <c r="D23">
-        <v>1.021702452568394</v>
+        <v>1.050873273447375</v>
       </c>
       <c r="E23">
-        <v>1.016696365073192</v>
+        <v>1.052566702633567</v>
       </c>
       <c r="F23">
-        <v>1.02433224185127</v>
+        <v>1.062413241114482</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.045142711835521</v>
+        <v>1.043567369014204</v>
       </c>
       <c r="J23">
-        <v>1.03037261134616</v>
+        <v>1.051721065007085</v>
       </c>
       <c r="K23">
-        <v>1.036552750562099</v>
+        <v>1.054458633219989</v>
       </c>
       <c r="L23">
-        <v>1.031638839258147</v>
+        <v>1.056145856526806</v>
       </c>
       <c r="M23">
-        <v>1.039134587627385</v>
+        <v>1.065956743270638</v>
       </c>
       <c r="N23">
-        <v>1.013523717121249</v>
+        <v>1.021025754585842</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.007725436154045</v>
+        <v>1.046502021588888</v>
       </c>
       <c r="D24">
-        <v>1.027222115396339</v>
+        <v>1.051971491129986</v>
       </c>
       <c r="E24">
-        <v>1.022788836447348</v>
+        <v>1.053813012486235</v>
       </c>
       <c r="F24">
-        <v>1.030869562011821</v>
+        <v>1.063758594872825</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.047464014038237</v>
+        <v>1.043931213121437</v>
       </c>
       <c r="J24">
-        <v>1.034929311021787</v>
+        <v>1.052621769208762</v>
       </c>
       <c r="K24">
-        <v>1.040787469791983</v>
+        <v>1.055286747625274</v>
       </c>
       <c r="L24">
-        <v>1.036427234300177</v>
+        <v>1.057122067298763</v>
       </c>
       <c r="M24">
-        <v>1.044375425492157</v>
+        <v>1.067034563161214</v>
       </c>
       <c r="N24">
-        <v>1.015084427431528</v>
+        <v>1.021331158583308</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.016005554863887</v>
+        <v>1.048147175351508</v>
       </c>
       <c r="D25">
-        <v>1.033403253816052</v>
+        <v>1.053248279409795</v>
       </c>
       <c r="E25">
-        <v>1.029619536488061</v>
+        <v>1.055263366608111</v>
       </c>
       <c r="F25">
-        <v>1.038199899641615</v>
+        <v>1.065324450672385</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.050020154443036</v>
+        <v>1.044349260666548</v>
       </c>
       <c r="J25">
-        <v>1.04000601879102</v>
+        <v>1.053666651961857</v>
       </c>
       <c r="K25">
-        <v>1.045504248580827</v>
+        <v>1.056246964775026</v>
       </c>
       <c r="L25">
-        <v>1.041774811350169</v>
+        <v>1.058255958645845</v>
       </c>
       <c r="M25">
-        <v>1.05023280194635</v>
+        <v>1.068286994992095</v>
       </c>
       <c r="N25">
-        <v>1.016822359412021</v>
+        <v>1.021685081169173</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_171/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_171/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.049461418104183</v>
+        <v>1.022366892933935</v>
       </c>
       <c r="D2">
-        <v>1.054268500874967</v>
+        <v>1.038167487272831</v>
       </c>
       <c r="E2">
-        <v>1.056423404658036</v>
+        <v>1.034891445419187</v>
       </c>
       <c r="F2">
-        <v>1.066577067320107</v>
+        <v>1.043858246100516</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044679309074269</v>
+        <v>1.051955249771293</v>
       </c>
       <c r="J2">
-        <v>1.054499741971103</v>
+        <v>1.043898591930571</v>
       </c>
       <c r="K2">
-        <v>1.057012178741535</v>
+        <v>1.049119514206437</v>
       </c>
       <c r="L2">
-        <v>1.059161156060306</v>
+        <v>1.045885181114737</v>
       </c>
       <c r="M2">
-        <v>1.069287242618522</v>
+        <v>1.054738597363177</v>
       </c>
       <c r="N2">
-        <v>1.021966965282052</v>
+        <v>1.018154013758724</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.050416860626251</v>
+        <v>1.026855901334789</v>
       </c>
       <c r="D3">
-        <v>1.055010325809476</v>
+        <v>1.041537332733652</v>
       </c>
       <c r="E3">
-        <v>1.05726754969049</v>
+        <v>1.038624687051076</v>
       </c>
       <c r="F3">
-        <v>1.067488695386129</v>
+        <v>1.047865666289045</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.044916980563474</v>
+        <v>1.053303466027597</v>
       </c>
       <c r="J3">
-        <v>1.055104444839172</v>
+        <v>1.046640290321644</v>
       </c>
       <c r="K3">
-        <v>1.057567395799492</v>
+        <v>1.051664951540545</v>
       </c>
       <c r="L3">
-        <v>1.059818859499298</v>
+        <v>1.048786105479337</v>
       </c>
       <c r="M3">
-        <v>1.07001425038649</v>
+        <v>1.057920647324593</v>
       </c>
       <c r="N3">
-        <v>1.02217139681673</v>
+        <v>1.019091331098159</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.051035639155037</v>
+        <v>1.029703826325352</v>
       </c>
       <c r="D4">
-        <v>1.05549081568895</v>
+        <v>1.043678542667064</v>
       </c>
       <c r="E4">
-        <v>1.057814618097268</v>
+        <v>1.040998872734435</v>
       </c>
       <c r="F4">
-        <v>1.068079551094568</v>
+        <v>1.050414479455442</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045069853785605</v>
+        <v>1.054150556571437</v>
       </c>
       <c r="J4">
-        <v>1.055495632441421</v>
+        <v>1.0483770605923</v>
       </c>
       <c r="K4">
-        <v>1.057926469216746</v>
+        <v>1.053276907085541</v>
       </c>
       <c r="L4">
-        <v>1.060244639408543</v>
+        <v>1.050626431520276</v>
       </c>
       <c r="M4">
-        <v>1.070485008083912</v>
+        <v>1.059940263278367</v>
       </c>
       <c r="N4">
-        <v>1.022303563609145</v>
+        <v>1.019684770125426</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.051295902651391</v>
+        <v>1.030887971793036</v>
       </c>
       <c r="D5">
-        <v>1.05569292702714</v>
+        <v>1.044569587244278</v>
       </c>
       <c r="E5">
-        <v>1.058044807743626</v>
+        <v>1.041987376947079</v>
       </c>
       <c r="F5">
-        <v>1.068328177888631</v>
+        <v>1.05147575596587</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045133901802177</v>
+        <v>1.054500757861577</v>
       </c>
       <c r="J5">
-        <v>1.055660063799455</v>
+        <v>1.049098534198404</v>
       </c>
       <c r="K5">
-        <v>1.058077377358864</v>
+        <v>1.053946405791166</v>
       </c>
       <c r="L5">
-        <v>1.060423684454691</v>
+        <v>1.051391569296294</v>
       </c>
       <c r="M5">
-        <v>1.070682993573444</v>
+        <v>1.060780169629815</v>
       </c>
       <c r="N5">
-        <v>1.022359098794294</v>
+        <v>1.019931210145356</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.05133960957142</v>
+        <v>1.031086038705026</v>
       </c>
       <c r="D6">
-        <v>1.055726869018573</v>
+        <v>1.044718670923646</v>
       </c>
       <c r="E6">
-        <v>1.058083469407039</v>
+        <v>1.042152797175929</v>
       </c>
       <c r="F6">
-        <v>1.068369936926969</v>
+        <v>1.051653358110053</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045144642835417</v>
+        <v>1.054559215259791</v>
       </c>
       <c r="J6">
-        <v>1.055687671116139</v>
+        <v>1.049219172116728</v>
       </c>
       <c r="K6">
-        <v>1.058102712753365</v>
+        <v>1.054058345361208</v>
       </c>
       <c r="L6">
-        <v>1.060453749638874</v>
+        <v>1.051519546304042</v>
       </c>
       <c r="M6">
-        <v>1.070716240801598</v>
+        <v>1.060920665751086</v>
       </c>
       <c r="N6">
-        <v>1.02236842175759</v>
+        <v>1.019972412585709</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.051039116303048</v>
+        <v>1.029719699893449</v>
       </c>
       <c r="D7">
-        <v>1.055493515866755</v>
+        <v>1.043690484309189</v>
       </c>
       <c r="E7">
-        <v>1.057817693110315</v>
+        <v>1.041012118490945</v>
       </c>
       <c r="F7">
-        <v>1.068082872351948</v>
+        <v>1.05042870008506</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045070710463038</v>
+        <v>1.054155259041033</v>
       </c>
       <c r="J7">
-        <v>1.055497829676504</v>
+        <v>1.048386734663856</v>
       </c>
       <c r="K7">
-        <v>1.057928485842043</v>
+        <v>1.053285884743796</v>
       </c>
       <c r="L7">
-        <v>1.060247031633283</v>
+        <v>1.050636688521914</v>
       </c>
       <c r="M7">
-        <v>1.070487653267055</v>
+        <v>1.059951521690173</v>
       </c>
       <c r="N7">
-        <v>1.022304305782513</v>
+        <v>1.019688074908883</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.049784201232633</v>
+        <v>1.023896016070149</v>
       </c>
       <c r="D8">
-        <v>1.054519103944159</v>
+        <v>1.039314659462018</v>
       </c>
       <c r="E8">
-        <v>1.056708510538015</v>
+        <v>1.036161899169857</v>
       </c>
       <c r="F8">
-        <v>1.066884954258747</v>
+        <v>1.045221952008679</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044759820616519</v>
+        <v>1.052416209970751</v>
       </c>
       <c r="J8">
-        <v>1.054704123311478</v>
+        <v>1.044833045703399</v>
       </c>
       <c r="K8">
-        <v>1.057199855483457</v>
+        <v>1.049987174242893</v>
       </c>
       <c r="L8">
-        <v>1.059383387545857</v>
+        <v>1.046873339212423</v>
       </c>
       <c r="M8">
-        <v>1.069532868163518</v>
+        <v>1.05582231839696</v>
       </c>
       <c r="N8">
-        <v>1.022036077242918</v>
+        <v>1.018473543912201</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.047577089175586</v>
+        <v>1.013177033950472</v>
       </c>
       <c r="D9">
-        <v>1.052805800683007</v>
+        <v>1.031289156997719</v>
       </c>
       <c r="E9">
-        <v>1.05476056341454</v>
+        <v>1.027282203841271</v>
       </c>
       <c r="F9">
-        <v>1.06478157547254</v>
+        <v>1.035691479111762</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044205001552015</v>
+        <v>1.049151395400075</v>
       </c>
       <c r="J9">
-        <v>1.053304824539093</v>
+        <v>1.038272906780806</v>
       </c>
       <c r="K9">
-        <v>1.05591451306999</v>
+        <v>1.043894196999513</v>
       </c>
       <c r="L9">
-        <v>1.057863132298486</v>
+        <v>1.039947627845364</v>
       </c>
       <c r="M9">
-        <v>1.067853036663542</v>
+        <v>1.048230861705916</v>
       </c>
       <c r="N9">
-        <v>1.021562569258168</v>
+        <v>1.016229185477898</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.046108573588409</v>
+        <v>1.005690941532203</v>
       </c>
       <c r="D10">
-        <v>1.051666193334444</v>
+        <v>1.025706928776221</v>
       </c>
       <c r="E10">
-        <v>1.053466437071522</v>
+        <v>1.021115787562356</v>
       </c>
       <c r="F10">
-        <v>1.063384458296338</v>
+        <v>1.029074288092164</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.043830454947992</v>
+        <v>1.046830247373514</v>
       </c>
       <c r="J10">
-        <v>1.052371557544721</v>
+        <v>1.033680573619772</v>
       </c>
       <c r="K10">
-        <v>1.055056736644592</v>
+        <v>1.0396270472139</v>
       </c>
       <c r="L10">
-        <v>1.056850769285814</v>
+        <v>1.035113976491012</v>
       </c>
       <c r="M10">
-        <v>1.066734986353366</v>
+        <v>1.042937716799206</v>
       </c>
       <c r="N10">
-        <v>1.021246347423532</v>
+        <v>1.014656784891667</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.045473389060422</v>
+        <v>1.002360769833624</v>
       </c>
       <c r="D11">
-        <v>1.05117336372091</v>
+        <v>1.023229888632132</v>
       </c>
       <c r="E11">
-        <v>1.052907152362461</v>
+        <v>1.018381704440898</v>
       </c>
       <c r="F11">
-        <v>1.06278072771697</v>
+        <v>1.026140575083713</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.043667172073276</v>
+        <v>1.045788485219176</v>
       </c>
       <c r="J11">
-        <v>1.051967360075136</v>
+        <v>1.031635666741115</v>
       </c>
       <c r="K11">
-        <v>1.054685113733517</v>
+        <v>1.037726628604743</v>
       </c>
       <c r="L11">
-        <v>1.056412689487506</v>
+        <v>1.03296509932839</v>
       </c>
       <c r="M11">
-        <v>1.066251309579878</v>
+        <v>1.040585800390572</v>
       </c>
       <c r="N11">
-        <v>1.021109294681079</v>
+        <v>1.013956382386097</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.045237558263516</v>
+        <v>1.001109748742189</v>
       </c>
       <c r="D12">
-        <v>1.050990400586583</v>
+        <v>1.022300361030384</v>
       </c>
       <c r="E12">
-        <v>1.052699572872225</v>
+        <v>1.017356031809203</v>
       </c>
       <c r="F12">
-        <v>1.062556661627029</v>
+        <v>1.025040044917303</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.043606356555163</v>
+        <v>1.045395797743606</v>
       </c>
       <c r="J12">
-        <v>1.051817211097766</v>
+        <v>1.03086721615445</v>
       </c>
       <c r="K12">
-        <v>1.054547047389661</v>
+        <v>1.037012439291202</v>
       </c>
       <c r="L12">
-        <v>1.056250010331657</v>
+        <v>1.032158104207281</v>
       </c>
       <c r="M12">
-        <v>1.06607171878703</v>
+        <v>1.039702742553396</v>
       </c>
       <c r="N12">
-        <v>1.021058368580856</v>
+        <v>1.013693150740884</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.045288140001717</v>
+        <v>1.001378744929463</v>
       </c>
       <c r="D13">
-        <v>1.051029642445725</v>
+        <v>1.022500182716035</v>
       </c>
       <c r="E13">
-        <v>1.052744091944643</v>
+        <v>1.017576508057101</v>
       </c>
       <c r="F13">
-        <v>1.062604716108433</v>
+        <v>1.025276610963931</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.043619409147719</v>
+        <v>1.045480293529767</v>
       </c>
       <c r="J13">
-        <v>1.051849419092099</v>
+        <v>1.031032460156648</v>
       </c>
       <c r="K13">
-        <v>1.054576664387376</v>
+        <v>1.037166016628647</v>
       </c>
       <c r="L13">
-        <v>1.056284903590684</v>
+        <v>1.03233161282487</v>
       </c>
       <c r="M13">
-        <v>1.066110238511375</v>
+        <v>1.03989259661017</v>
       </c>
       <c r="N13">
-        <v>1.02106929323774</v>
+        <v>1.013749756055284</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.045453893065082</v>
+        <v>1.002257650988043</v>
       </c>
       <c r="D14">
-        <v>1.051158237970276</v>
+        <v>1.023153248935431</v>
       </c>
       <c r="E14">
-        <v>1.05288999042835</v>
+        <v>1.018297131314315</v>
       </c>
       <c r="F14">
-        <v>1.062762202534481</v>
+        <v>1.026049828847515</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.043662148406193</v>
+        <v>1.045756143767016</v>
       </c>
       <c r="J14">
-        <v>1.051954948953734</v>
+        <v>1.031572330004132</v>
       </c>
       <c r="K14">
-        <v>1.054673701713198</v>
+        <v>1.037667764813077</v>
       </c>
       <c r="L14">
-        <v>1.056399241490313</v>
+        <v>1.03289857498687</v>
       </c>
       <c r="M14">
-        <v>1.066236463148558</v>
+        <v>1.040513002032451</v>
       </c>
       <c r="N14">
-        <v>1.021105085490997</v>
+        <v>1.013934687034768</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.04555603294368</v>
+        <v>1.002797289996153</v>
       </c>
       <c r="D15">
-        <v>1.051237482643659</v>
+        <v>1.023554359274046</v>
       </c>
       <c r="E15">
-        <v>1.05297990504059</v>
+        <v>1.018739775604972</v>
       </c>
       <c r="F15">
-        <v>1.062859259853834</v>
+        <v>1.026524783654512</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.043688459627366</v>
+        <v>1.045925338061749</v>
       </c>
       <c r="J15">
-        <v>1.052019967818492</v>
+        <v>1.031903772133539</v>
       </c>
       <c r="K15">
-        <v>1.054733485793305</v>
+        <v>1.037975798565915</v>
       </c>
       <c r="L15">
-        <v>1.056469694599796</v>
+        <v>1.033246719365968</v>
       </c>
       <c r="M15">
-        <v>1.066314243400296</v>
+        <v>1.040893988104155</v>
       </c>
       <c r="N15">
-        <v>1.021127135825894</v>
+        <v>1.01404821799507</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.046150743366402</v>
+        <v>1.0059100253004</v>
       </c>
       <c r="D16">
-        <v>1.05169891416069</v>
+        <v>1.025870022399167</v>
       </c>
       <c r="E16">
-        <v>1.053503577842082</v>
+        <v>1.021295849672214</v>
       </c>
       <c r="F16">
-        <v>1.063424551955312</v>
+        <v>1.029267502145026</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.04384126832803</v>
+        <v>1.046898594369384</v>
       </c>
       <c r="J16">
-        <v>1.052398381056952</v>
+        <v>1.033815064914487</v>
       </c>
       <c r="K16">
-        <v>1.055081395904314</v>
+        <v>1.039752030113678</v>
       </c>
       <c r="L16">
-        <v>1.056879849194626</v>
+        <v>1.035255378627463</v>
       </c>
       <c r="M16">
-        <v>1.066767095897858</v>
+        <v>1.043092505377273</v>
       </c>
       <c r="N16">
-        <v>1.021255440530411</v>
+        <v>1.014702845244596</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.04652397557882</v>
+        <v>1.007838329817779</v>
       </c>
       <c r="D17">
-        <v>1.051988527048198</v>
+        <v>1.027306234509494</v>
       </c>
       <c r="E17">
-        <v>1.053832354243824</v>
+        <v>1.022881734344268</v>
       </c>
       <c r="F17">
-        <v>1.063779475205599</v>
+        <v>1.030969248176889</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.043936826601684</v>
+        <v>1.047499119724637</v>
       </c>
       <c r="J17">
-        <v>1.052635727166339</v>
+        <v>1.034998589637078</v>
       </c>
       <c r="K17">
-        <v>1.055299577875203</v>
+        <v>1.040851846704379</v>
       </c>
       <c r="L17">
-        <v>1.0571372041006</v>
+        <v>1.036500115870111</v>
       </c>
       <c r="M17">
-        <v>1.067051278685228</v>
+        <v>1.044455221999899</v>
       </c>
       <c r="N17">
-        <v>1.02133588907711</v>
+        <v>1.015108151020689</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.046741742354647</v>
+        <v>1.008954576128251</v>
       </c>
       <c r="D18">
-        <v>1.05215751383425</v>
+        <v>1.028138204963027</v>
       </c>
       <c r="E18">
-        <v>1.054024228117785</v>
+        <v>1.02380061588982</v>
       </c>
       <c r="F18">
-        <v>1.063986614547038</v>
+        <v>1.031955283905927</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.043992457789727</v>
+        <v>1.04784587147088</v>
       </c>
       <c r="J18">
-        <v>1.052774158704597</v>
+        <v>1.035683507114367</v>
       </c>
       <c r="K18">
-        <v>1.05542682035701</v>
+        <v>1.041488291117882</v>
       </c>
       <c r="L18">
-        <v>1.057287341811005</v>
+        <v>1.037220788201303</v>
       </c>
       <c r="M18">
-        <v>1.067217080684454</v>
+        <v>1.045244318782873</v>
       </c>
       <c r="N18">
-        <v>1.021382801110553</v>
+        <v>1.015342683009181</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.046816006487952</v>
+        <v>1.009333766683963</v>
       </c>
       <c r="D19">
-        <v>1.052215144178795</v>
+        <v>1.028420923530054</v>
       </c>
       <c r="E19">
-        <v>1.054089669774888</v>
+        <v>1.024112904259731</v>
       </c>
       <c r="F19">
-        <v>1.064057263783622</v>
+        <v>1.032290399035408</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.044011408534556</v>
+        <v>1.047963513431728</v>
       </c>
       <c r="J19">
-        <v>1.052821358821623</v>
+        <v>1.035916140184469</v>
       </c>
       <c r="K19">
-        <v>1.05547020343885</v>
+        <v>1.041704454779102</v>
       </c>
       <c r="L19">
-        <v>1.05733853942743</v>
+        <v>1.037465621454984</v>
       </c>
       <c r="M19">
-        <v>1.06727362213544</v>
+        <v>1.045512417656805</v>
       </c>
       <c r="N19">
-        <v>1.021398794812555</v>
+        <v>1.015422338103587</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.046483924384149</v>
+        <v>1.007632325413081</v>
       </c>
       <c r="D20">
-        <v>1.051957448059536</v>
+        <v>1.027152740190359</v>
       </c>
       <c r="E20">
-        <v>1.053797068863312</v>
+        <v>1.022712222333527</v>
       </c>
       <c r="F20">
-        <v>1.063741383020277</v>
+        <v>1.030787349652777</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.043926585098279</v>
+        <v>1.047435055129229</v>
       </c>
       <c r="J20">
-        <v>1.052610263040028</v>
+        <v>1.034872171337051</v>
       </c>
       <c r="K20">
-        <v>1.055276171010866</v>
+        <v>1.040734372765404</v>
       </c>
       <c r="L20">
-        <v>1.057109589559402</v>
+        <v>1.036367124836879</v>
       </c>
       <c r="M20">
-        <v>1.067020784106333</v>
+        <v>1.044309613560277</v>
       </c>
       <c r="N20">
-        <v>1.021327258972761</v>
+        <v>1.015064860538241</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.045405080012193</v>
+        <v>1.001999228934322</v>
       </c>
       <c r="D21">
-        <v>1.051120367139711</v>
+        <v>1.022961201651378</v>
       </c>
       <c r="E21">
-        <v>1.052847022429576</v>
+        <v>1.018085209053325</v>
       </c>
       <c r="F21">
-        <v>1.062715821551801</v>
+        <v>1.025822438596161</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.043649567310008</v>
+        <v>1.045675072767843</v>
       </c>
       <c r="J21">
-        <v>1.051923873364186</v>
+        <v>1.031413600367107</v>
       </c>
       <c r="K21">
-        <v>1.054645127433098</v>
+        <v>1.037520244391182</v>
       </c>
       <c r="L21">
-        <v>1.05636557062758</v>
+        <v>1.032731865307727</v>
       </c>
       <c r="M21">
-        <v>1.066199291243753</v>
+        <v>1.040330572719364</v>
       </c>
       <c r="N21">
-        <v>1.021094546074919</v>
+        <v>1.013880315372975</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.044727375835591</v>
+        <v>0.9983758075098405</v>
       </c>
       <c r="D22">
-        <v>1.050594615681381</v>
+        <v>1.020270929412649</v>
       </c>
       <c r="E22">
-        <v>1.05225063865407</v>
+        <v>1.015117243327528</v>
       </c>
       <c r="F22">
-        <v>1.062072089123504</v>
+        <v>1.022637916755877</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.043474440926496</v>
+        <v>1.044535227438655</v>
       </c>
       <c r="J22">
-        <v>1.051492243760829</v>
+        <v>1.029187453793316</v>
       </c>
       <c r="K22">
-        <v>1.054248197726587</v>
+        <v>1.035451234374988</v>
       </c>
       <c r="L22">
-        <v>1.055898026811126</v>
+        <v>1.030395057732785</v>
       </c>
       <c r="M22">
-        <v>1.065683181829957</v>
+        <v>1.03777386738547</v>
       </c>
       <c r="N22">
-        <v>1.020948122775075</v>
+        <v>1.013117703650249</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.045086581668773</v>
+        <v>1.000304649895341</v>
       </c>
       <c r="D23">
-        <v>1.050873273447375</v>
+        <v>1.021702452568393</v>
       </c>
       <c r="E23">
-        <v>1.052566702633567</v>
+        <v>1.016696365073191</v>
       </c>
       <c r="F23">
-        <v>1.062413241114482</v>
+        <v>1.024332241851269</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.043567369014204</v>
+        <v>1.045142711835521</v>
       </c>
       <c r="J23">
-        <v>1.051721065007085</v>
+        <v>1.030372611346159</v>
       </c>
       <c r="K23">
-        <v>1.054458633219989</v>
+        <v>1.036552750562098</v>
       </c>
       <c r="L23">
-        <v>1.056145856526806</v>
+        <v>1.031638839258146</v>
       </c>
       <c r="M23">
-        <v>1.065956743270638</v>
+        <v>1.039134587627384</v>
       </c>
       <c r="N23">
-        <v>1.021025754585842</v>
+        <v>1.013523717121249</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.046502021588888</v>
+        <v>1.007725436154047</v>
       </c>
       <c r="D24">
-        <v>1.051971491129986</v>
+        <v>1.02722211539634</v>
       </c>
       <c r="E24">
-        <v>1.053813012486235</v>
+        <v>1.02278883644735</v>
       </c>
       <c r="F24">
-        <v>1.063758594872825</v>
+        <v>1.030869562011823</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.043931213121437</v>
+        <v>1.047464014038238</v>
       </c>
       <c r="J24">
-        <v>1.052621769208762</v>
+        <v>1.034929311021789</v>
       </c>
       <c r="K24">
-        <v>1.055286747625274</v>
+        <v>1.040787469791985</v>
       </c>
       <c r="L24">
-        <v>1.057122067298763</v>
+        <v>1.036427234300179</v>
       </c>
       <c r="M24">
-        <v>1.067034563161214</v>
+        <v>1.044375425492158</v>
       </c>
       <c r="N24">
-        <v>1.021331158583308</v>
+        <v>1.015084427431528</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.048147175351508</v>
+        <v>1.016005554863887</v>
       </c>
       <c r="D25">
-        <v>1.053248279409795</v>
+        <v>1.033403253816052</v>
       </c>
       <c r="E25">
-        <v>1.055263366608111</v>
+        <v>1.029619536488061</v>
       </c>
       <c r="F25">
-        <v>1.065324450672385</v>
+        <v>1.038199899641616</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044349260666548</v>
+        <v>1.050020154443037</v>
       </c>
       <c r="J25">
-        <v>1.053666651961857</v>
+        <v>1.040006018791021</v>
       </c>
       <c r="K25">
-        <v>1.056246964775026</v>
+        <v>1.045504248580827</v>
       </c>
       <c r="L25">
-        <v>1.058255958645845</v>
+        <v>1.041774811350169</v>
       </c>
       <c r="M25">
-        <v>1.068286994992095</v>
+        <v>1.050232801946351</v>
       </c>
       <c r="N25">
-        <v>1.021685081169173</v>
+        <v>1.016822359412021</v>
       </c>
     </row>
   </sheetData>
